--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H2">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I2">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J2">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N2">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q2">
-        <v>53.19666504772798</v>
+        <v>61.98179995348911</v>
       </c>
       <c r="R2">
-        <v>478.7699854295519</v>
+        <v>557.836199581402</v>
       </c>
       <c r="S2">
-        <v>0.1441878493305692</v>
+        <v>0.1317258027256704</v>
       </c>
       <c r="T2">
-        <v>0.1441878493305692</v>
+        <v>0.1317258027256704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H3">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I3">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J3">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q3">
-        <v>120.483314704051</v>
+        <v>182.5308477256651</v>
       </c>
       <c r="R3">
-        <v>1084.349832336459</v>
+        <v>1642.777629530986</v>
       </c>
       <c r="S3">
-        <v>0.3265661486826084</v>
+        <v>0.3879206873130965</v>
       </c>
       <c r="T3">
-        <v>0.3265661486826085</v>
+        <v>0.3879206873130965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H4">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I4">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J4">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N4">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O4">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P4">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q4">
-        <v>19.692430761483</v>
+        <v>38.31121046353356</v>
       </c>
       <c r="R4">
-        <v>177.231876853347</v>
+        <v>344.800894171802</v>
       </c>
       <c r="S4">
-        <v>0.05337570009401646</v>
+        <v>0.0814202710390468</v>
       </c>
       <c r="T4">
-        <v>0.05337570009401646</v>
+        <v>0.0814202710390468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H5">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I5">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J5">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N5">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q5">
-        <v>28.70678475929499</v>
+        <v>58.45171036430556</v>
       </c>
       <c r="R5">
-        <v>258.361062833655</v>
+        <v>526.06539327875</v>
       </c>
       <c r="S5">
-        <v>0.07780881662270837</v>
+        <v>0.1242235377837411</v>
       </c>
       <c r="T5">
-        <v>0.07780881662270837</v>
+        <v>0.1242235377837411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H6">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I6">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J6">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N6">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O6">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P6">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q6">
-        <v>23.856653029243</v>
+        <v>27.08026956342844</v>
       </c>
       <c r="R6">
-        <v>214.709877263187</v>
+        <v>243.722426070856</v>
       </c>
       <c r="S6">
-        <v>0.06466269059208762</v>
+        <v>0.05755189828218835</v>
       </c>
       <c r="T6">
-        <v>0.06466269059208762</v>
+        <v>0.05755189828218835</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H7">
         <v>2.388977</v>
       </c>
       <c r="I7">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J7">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N7">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q7">
-        <v>10.88057344938133</v>
+        <v>8.368010156659221</v>
       </c>
       <c r="R7">
-        <v>97.925161044432</v>
+        <v>75.31209140993299</v>
       </c>
       <c r="S7">
-        <v>0.02949144431783497</v>
+        <v>0.01778397619832995</v>
       </c>
       <c r="T7">
-        <v>0.02949144431783497</v>
+        <v>0.01778397619832995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H8">
         <v>2.388977</v>
       </c>
       <c r="I8">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J8">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q8">
         <v>24.64304019596322</v>
@@ -948,10 +948,10 @@
         <v>221.787361763669</v>
       </c>
       <c r="S8">
-        <v>0.06679416771022685</v>
+        <v>0.05237221658374064</v>
       </c>
       <c r="T8">
-        <v>0.06679416771022686</v>
+        <v>0.05237221658374064</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H9">
         <v>2.388977</v>
       </c>
       <c r="I9">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J9">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N9">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O9">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P9">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q9">
-        <v>4.027788943253</v>
+        <v>5.172302167948111</v>
       </c>
       <c r="R9">
-        <v>36.250100489277</v>
+        <v>46.55071951153299</v>
       </c>
       <c r="S9">
-        <v>0.01091719236091286</v>
+        <v>0.01099235026288288</v>
       </c>
       <c r="T9">
-        <v>0.01091719236091286</v>
+        <v>0.01099235026288288</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H10">
         <v>2.388977</v>
       </c>
       <c r="I10">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J10">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N10">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q10">
-        <v>5.871538747567222</v>
+        <v>7.89142145548611</v>
       </c>
       <c r="R10">
-        <v>52.84384872810499</v>
+        <v>71.02279309937499</v>
       </c>
       <c r="S10">
-        <v>0.01591461689399606</v>
+        <v>0.01677111388585885</v>
       </c>
       <c r="T10">
-        <v>0.01591461689399606</v>
+        <v>0.01677111388585885</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H11">
         <v>2.388977</v>
       </c>
       <c r="I11">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J11">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N11">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O11">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P11">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q11">
-        <v>4.879517640968555</v>
+        <v>3.656040497724888</v>
       </c>
       <c r="R11">
-        <v>43.915658768717</v>
+        <v>32.904364479524</v>
       </c>
       <c r="S11">
-        <v>0.01322577559684595</v>
+        <v>0.007769940042427897</v>
       </c>
       <c r="T11">
-        <v>0.01322577559684595</v>
+        <v>0.007769940042427896</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H12">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I12">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J12">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N12">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q12">
-        <v>2.570864237632</v>
+        <v>1.356495878076111</v>
       </c>
       <c r="R12">
-        <v>23.137778138688</v>
+        <v>12.208462902685</v>
       </c>
       <c r="S12">
-        <v>0.006968244814077183</v>
+        <v>0.002882870593750483</v>
       </c>
       <c r="T12">
-        <v>0.006968244814077183</v>
+        <v>0.002882870593750485</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H13">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I13">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J13">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q13">
-        <v>5.822662844110666</v>
+        <v>3.994758828356111</v>
       </c>
       <c r="R13">
-        <v>52.403965596996</v>
+        <v>35.952829455205</v>
       </c>
       <c r="S13">
-        <v>0.01578214032996397</v>
+        <v>0.008489795613479042</v>
       </c>
       <c r="T13">
-        <v>0.01578214032996397</v>
+        <v>0.008489795613479043</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H14">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I14">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J14">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N14">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O14">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P14">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q14">
-        <v>0.951686838852</v>
+        <v>0.8384557905205555</v>
       </c>
       <c r="R14">
-        <v>8.565181549668001</v>
+        <v>7.546102114685</v>
       </c>
       <c r="S14">
-        <v>0.00257951656193415</v>
+        <v>0.00178191440292449</v>
       </c>
       <c r="T14">
-        <v>0.00257951656193415</v>
+        <v>0.00178191440292449</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H15">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I15">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J15">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N15">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q15">
-        <v>1.387328439646666</v>
+        <v>1.279238489930556</v>
       </c>
       <c r="R15">
-        <v>12.48595595682</v>
+        <v>11.513146409375</v>
       </c>
       <c r="S15">
-        <v>0.003760309106751621</v>
+        <v>0.002718680598016275</v>
       </c>
       <c r="T15">
-        <v>0.003760309106751622</v>
+        <v>0.002718680598016275</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H16">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I16">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J16">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N16">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O16">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P16">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q16">
-        <v>1.152933478958666</v>
+        <v>0.5926622664644444</v>
       </c>
       <c r="R16">
-        <v>10.376401310628</v>
+        <v>5.33396039818</v>
       </c>
       <c r="S16">
-        <v>0.003124989106048505</v>
+        <v>0.001259545751395195</v>
       </c>
       <c r="T16">
-        <v>0.003124989106048505</v>
+        <v>0.001259545751395195</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H17">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I17">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J17">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N17">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O17">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P17">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q17">
-        <v>8.948681479829332</v>
+        <v>5.228536502759889</v>
       </c>
       <c r="R17">
-        <v>80.53813331846399</v>
+        <v>47.056828524839</v>
       </c>
       <c r="S17">
-        <v>0.0242551132813164</v>
+        <v>0.01111186135967878</v>
       </c>
       <c r="T17">
-        <v>0.0242551132813164</v>
+        <v>0.01111186135967878</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H18">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I18">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J18">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O18">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P18">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q18">
-        <v>20.26756387742089</v>
+        <v>15.39757156019189</v>
       </c>
       <c r="R18">
-        <v>182.408074896788</v>
+        <v>138.578144041727</v>
       </c>
       <c r="S18">
-        <v>0.05493457990333291</v>
+        <v>0.03272343615890836</v>
       </c>
       <c r="T18">
-        <v>0.05493457990333292</v>
+        <v>0.03272343615890835</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H19">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I19">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J19">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N19">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O19">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P19">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q19">
-        <v>3.312637931156</v>
+        <v>3.231780337515445</v>
       </c>
       <c r="R19">
-        <v>29.813741380404</v>
+        <v>29.086023037639</v>
       </c>
       <c r="S19">
-        <v>0.008978798548287001</v>
+        <v>0.006868288102502835</v>
       </c>
       <c r="T19">
-        <v>0.008978798548287001</v>
+        <v>0.006868288102502834</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H20">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I20">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J20">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N20">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O20">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P20">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q20">
-        <v>4.829022136828888</v>
+        <v>4.930752277569445</v>
       </c>
       <c r="R20">
-        <v>43.46119923145999</v>
+        <v>44.376770498125</v>
       </c>
       <c r="S20">
-        <v>0.01308890915726314</v>
+        <v>0.01047900032415403</v>
       </c>
       <c r="T20">
-        <v>0.01308890915726315</v>
+        <v>0.01047900032415403</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H21">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I21">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J21">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N21">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O21">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P21">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q21">
-        <v>4.013138585698222</v>
+        <v>2.284383125743556</v>
       </c>
       <c r="R21">
-        <v>36.118247271284</v>
+        <v>20.559448131692</v>
       </c>
       <c r="S21">
-        <v>0.01087748303804738</v>
+        <v>0.004854847732678775</v>
       </c>
       <c r="T21">
-        <v>0.01087748303804738</v>
+        <v>0.004854847732678773</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H22">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I22">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J22">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N22">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O22">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P22">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q22">
-        <v>4.206049358213333</v>
+        <v>2.240501121859</v>
       </c>
       <c r="R22">
-        <v>37.85444422392</v>
+        <v>20.164510096731</v>
       </c>
       <c r="S22">
-        <v>0.011400361481211</v>
+        <v>0.004761588224383731</v>
       </c>
       <c r="T22">
-        <v>0.011400361481211</v>
+        <v>0.004761588224383731</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H23">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I23">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J23">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O23">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P23">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q23">
-        <v>9.526137926723889</v>
+        <v>6.598075070586999</v>
       </c>
       <c r="R23">
-        <v>85.73524134051499</v>
+        <v>59.38267563528299</v>
       </c>
       <c r="S23">
-        <v>0.02582029040445175</v>
+        <v>0.01402245071568595</v>
       </c>
       <c r="T23">
-        <v>0.02582029040445176</v>
+        <v>0.01402245071568595</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H24">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I24">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J24">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N24">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O24">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P24">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q24">
-        <v>1.557002411555</v>
+        <v>1.384863138659</v>
       </c>
       <c r="R24">
-        <v>14.013021703995</v>
+        <v>12.463768247931</v>
       </c>
       <c r="S24">
-        <v>0.00422020494937424</v>
+        <v>0.00294315764856679</v>
       </c>
       <c r="T24">
-        <v>0.00422020494937424</v>
+        <v>0.00294315764856679</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H25">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I25">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J25">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N25">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O25">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P25">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q25">
-        <v>2.269731636463888</v>
+        <v>2.112896410625</v>
       </c>
       <c r="R25">
-        <v>20.427584728175</v>
+        <v>19.016067695625</v>
       </c>
       <c r="S25">
-        <v>0.006152034585733096</v>
+        <v>0.004490398406864891</v>
       </c>
       <c r="T25">
-        <v>0.006152034585733096</v>
+        <v>0.00449039840686489</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H26">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I26">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J26">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N26">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O26">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P26">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q26">
-        <v>1.886250953377222</v>
+        <v>0.9788901642519999</v>
       </c>
       <c r="R26">
-        <v>16.976258580395</v>
+        <v>8.810011478268001</v>
       </c>
       <c r="S26">
-        <v>0.005112622530400773</v>
+        <v>0.00208037025002691</v>
       </c>
       <c r="T26">
-        <v>0.005112622530400773</v>
+        <v>0.00208037025002691</v>
       </c>
     </row>
   </sheetData>
